--- a/trunk/Document/Tính lãi theo  quy tắc 360 và 365.xlsx
+++ b/trunk/Document/Tính lãi theo  quy tắc 360 và 365.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Số lượng</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>trái phiếu</t>
+  </si>
+  <si>
+    <t>Mệnh giá</t>
+  </si>
+  <si>
+    <t>Trái phiếu</t>
+  </si>
+  <si>
+    <t>Tổng số ngày vẫn là 90</t>
   </si>
 </sst>
 </file>
@@ -107,7 +116,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -119,6 +128,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -416,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BO13"/>
+  <dimension ref="A1:BO18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -628,6 +638,50 @@
         <v>23397.260273972603</v>
       </c>
       <c r="M13" s="10"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="7">
+        <v>40969</v>
+      </c>
+      <c r="H17" s="7">
+        <v>41000</v>
+      </c>
+      <c r="I17" s="7">
+        <v>41014</v>
+      </c>
+      <c r="J17" s="7">
+        <v>41044</v>
+      </c>
+      <c r="K17" s="7">
+        <v>41049</v>
+      </c>
+      <c r="L17" s="7">
+        <v>41061</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/Document/Tính lãi theo  quy tắc 360 và 365.xlsx
+++ b/trunk/Document/Tính lãi theo  quy tắc 360 và 365.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Số lượng</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Tổng số ngày vẫn là 90</t>
+  </si>
+  <si>
+    <t>Thực tế</t>
+  </si>
+  <si>
+    <t>Giả sử</t>
   </si>
 </sst>
 </file>
@@ -77,7 +83,7 @@
     <numFmt numFmtId="165" formatCode="dd\-mm"/>
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,13 +98,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -116,7 +135,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -129,6 +148,9 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -426,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BO18"/>
+  <dimension ref="A1:BO21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -557,6 +579,9 @@
       </c>
     </row>
     <row r="10" spans="1:67">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -571,6 +596,9 @@
       </c>
     </row>
     <row r="11" spans="1:67">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
@@ -607,6 +635,9 @@
       </c>
     </row>
     <row r="12" spans="1:67">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
@@ -639,7 +670,25 @@
       </c>
       <c r="M13" s="10"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="16" spans="1:67">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="7">
+        <v>40909</v>
+      </c>
+      <c r="K16" s="12">
+        <v>40983</v>
+      </c>
+      <c r="L16" s="13"/>
+      <c r="M16" s="12">
+        <v>41016</v>
+      </c>
+      <c r="O16" s="7">
+        <v>41061</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -653,25 +702,34 @@
         <v>1000</v>
       </c>
       <c r="G17" s="7">
+        <v>40909</v>
+      </c>
+      <c r="H17" s="14">
+        <v>40925</v>
+      </c>
+      <c r="I17" s="7">
+        <v>40940</v>
+      </c>
+      <c r="J17" s="7">
         <v>40969</v>
       </c>
-      <c r="H17" s="7">
-        <v>41000</v>
-      </c>
-      <c r="I17" s="7">
+      <c r="K17" s="7">
+        <v>40983</v>
+      </c>
+      <c r="L17" s="7">
         <v>41014</v>
       </c>
-      <c r="J17" s="7">
-        <v>41044</v>
-      </c>
-      <c r="K17" s="7">
-        <v>41049</v>
-      </c>
-      <c r="L17" s="7">
+      <c r="M17" s="7">
+        <v>41016</v>
+      </c>
+      <c r="N17" s="7">
+        <v>41030</v>
+      </c>
+      <c r="O17" s="7">
         <v>41061</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -682,9 +740,61 @@
       <c r="E18">
         <v>1000</v>
       </c>
+      <c r="G18" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J18">
+        <v>14</v>
+      </c>
+      <c r="K18">
+        <v>30</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>13</v>
+      </c>
+      <c r="N18">
+        <v>30</v>
+      </c>
+      <c r="O18">
+        <f>SUM(J18:N18)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="G20" s="7">
+        <v>40940</v>
+      </c>
+      <c r="H20" s="7">
+        <v>40966</v>
+      </c>
+      <c r="I20" s="7">
+        <v>40973</v>
+      </c>
+      <c r="J20" s="7">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="G21">
+        <v>26</v>
+      </c>
+      <c r="H21">
+        <v>9</v>
+      </c>
+      <c r="I21">
+        <v>25</v>
+      </c>
+      <c r="J21">
+        <f>SUM(G21:I21)</f>
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
